--- a/Input/VBWIMInputOFROUDet.xlsx
+++ b/Input/VBWIMInputOFROUDet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A8C502-45EC-44F2-9867-547D790E0C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F993ACF-5B50-48CE-965B-6E2B97AACF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="13776" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28700" yWindow="-5680" windowWidth="24350" windowHeight="13760" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ILRes</t>
   </si>
@@ -49,73 +49,19 @@
     <t>Folder</t>
   </si>
   <si>
-    <t>Slab.Long.Wid9.Uni</t>
-  </si>
-  <si>
-    <t>Slab.Long.Wid18.Bi</t>
-  </si>
-  <si>
-    <t>Slab.Short.Wid9.Uni</t>
-  </si>
-  <si>
-    <t>Slab.Short.Wid18.Bi</t>
+    <t>Det</t>
+  </si>
+  <si>
+    <t>LaneDir</t>
+  </si>
+  <si>
+    <t>1,1</t>
   </si>
   <si>
     <t>Box.Stand.Wid12.Uni</t>
   </si>
   <si>
-    <t>Box.Stand.Wid12.Bi</t>
-  </si>
-  <si>
-    <t>Box.Stand.Wid18.Bi</t>
-  </si>
-  <si>
-    <t>Twin.Stand.Wid9.Uni</t>
-  </si>
-  <si>
-    <t>Twin.Stand.Wid9.Bi</t>
-  </si>
-  <si>
-    <t>Twin.Conc.Wid9.Uni</t>
-  </si>
-  <si>
-    <t>Twin.Conc.Wid9.Bi</t>
-  </si>
-  <si>
-    <t>Slab.Short.Wid9.Bi</t>
-  </si>
-  <si>
-    <t>Slab.Long.Wid9.Bi</t>
-  </si>
-  <si>
-    <t>Twin.Red.Wid9.Uni</t>
-  </si>
-  <si>
-    <t>Twin.Red.Wid9.Bi</t>
-  </si>
-  <si>
-    <t>Twin.Exp.Wid9.Uni</t>
-  </si>
-  <si>
-    <t>Twin.Exp.Wid9.Bi</t>
-  </si>
-  <si>
-    <t>Multi.Stand.Wid108.Uni</t>
-  </si>
-  <si>
-    <t>Det</t>
-  </si>
-  <si>
-    <t>LaneDir</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>1,1,2,2</t>
+    <t>Detx</t>
   </si>
 </sst>
 </file>
@@ -166,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -176,18 +122,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -513,9 +447,11 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -529,7 +465,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -545,343 +481,20 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="str">
-        <f>D2</f>
-        <v>Det</v>
-      </c>
-      <c r="E3" s="10" t="str">
-        <f>E2</f>
-        <v>Det</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="str">
-        <f t="shared" ref="D4:E19" si="0">D3</f>
-        <v>Det</v>
-      </c>
-      <c r="E4" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-      <c r="E5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-      <c r="E6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-      <c r="E7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-      <c r="E8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-      <c r="E9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-      <c r="E10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-      <c r="E11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-      <c r="E12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-      <c r="E13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-      <c r="E14" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="9">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-      <c r="E15" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="9">
-        <v>1</v>
-      </c>
-      <c r="D16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-      <c r="E16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="9">
-        <v>1</v>
-      </c>
-      <c r="D17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-      <c r="E17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="9">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-      <c r="E18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
-      </c>
-      <c r="E19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Det</v>
       </c>
     </row>
   </sheetData>

--- a/Input/VBWIMInputOFROUDet.xlsx
+++ b/Input/VBWIMInputOFROUDet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F993ACF-5B50-48CE-965B-6E2B97AACF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E796DDF-57FF-4608-9F6B-8442DCACE7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28700" yWindow="-5680" windowWidth="24350" windowHeight="13760" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>ILRes</t>
   </si>
@@ -49,19 +49,73 @@
     <t>Folder</t>
   </si>
   <si>
+    <t>Slab.Long.Wid9.Uni</t>
+  </si>
+  <si>
+    <t>Slab.Long.Wid18.Bi</t>
+  </si>
+  <si>
+    <t>Slab.Short.Wid9.Uni</t>
+  </si>
+  <si>
+    <t>Slab.Short.Wid18.Bi</t>
+  </si>
+  <si>
+    <t>Box.Stand.Wid12.Bi</t>
+  </si>
+  <si>
+    <t>Box.Stand.Wid18.Bi</t>
+  </si>
+  <si>
+    <t>Twin.Stand.Wid9.Uni</t>
+  </si>
+  <si>
+    <t>Twin.Stand.Wid9.Bi</t>
+  </si>
+  <si>
+    <t>Twin.Conc.Wid9.Uni</t>
+  </si>
+  <si>
+    <t>Twin.Conc.Wid9.Bi</t>
+  </si>
+  <si>
+    <t>Slab.Short.Wid9.Bi</t>
+  </si>
+  <si>
+    <t>Slab.Long.Wid9.Bi</t>
+  </si>
+  <si>
+    <t>Twin.Red.Wid9.Uni</t>
+  </si>
+  <si>
+    <t>Twin.Red.Wid9.Bi</t>
+  </si>
+  <si>
+    <t>Twin.Exp.Wid9.Uni</t>
+  </si>
+  <si>
+    <t>Twin.Exp.Wid9.Bi</t>
+  </si>
+  <si>
+    <t>Multi.Stand.Wid108.Uni</t>
+  </si>
+  <si>
     <t>Det</t>
   </si>
   <si>
     <t>LaneDir</t>
   </si>
   <si>
+    <t>1,2</t>
+  </si>
+  <si>
     <t>1,1</t>
   </si>
   <si>
+    <t>1,1,2,2</t>
+  </si>
+  <si>
     <t>Box.Stand.Wid12.Uni</t>
-  </si>
-  <si>
-    <t>Detx</t>
   </si>
 </sst>
 </file>
@@ -112,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -122,6 +176,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -447,10 +513,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,7 +531,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -481,20 +547,343 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="str">
+        <f>D2</f>
+        <v>Det</v>
+      </c>
+      <c r="E3" s="10" t="str">
+        <f>E2</f>
+        <v>Det</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:E19" si="0">D3</f>
+        <v>Det</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+      <c r="E5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+      <c r="E6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C7" s="7">
         <v>0.1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+      <c r="E7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
+      <c r="C8" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+      <c r="E8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+      <c r="E9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+      <c r="E10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+      <c r="E11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+      <c r="E12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+      <c r="E13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+      <c r="E14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+      <c r="E15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+      <c r="E16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+      <c r="E17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+      <c r="E18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
+      </c>
+      <c r="E19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Det</v>
       </c>
     </row>
   </sheetData>
